--- a/Params.xlsx
+++ b/Params.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\FLEX\FLEX_ASSESSMENT_SERVICES\SCRIPTS\Windows\BackUp20190506\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkspaceFlex\Projects\FLEX\FLEX_ASSESSMENT_SERVICES\EXECUTION_SUITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_83DE926A359945CC33E59361FF9E65EA7BDE1EA5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1BFA3A96-5660-4749-B998-B1CFDC3399BD}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_09D2AFA9D9CF5625FC8796E0871E8D58BE6F3985" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A602A1F9-133F-465F-B095-CB7BAAB3D6EA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,12 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Concurrence Users</t>
   </si>
   <si>
-    <t>Total Duration</t>
+    <t>Total Duration/Loops</t>
   </si>
   <si>
     <t>Ramp-Up</t>
@@ -45,49 +46,82 @@
     <t>Jmeter Script</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Server Test</t>
+  </si>
+  <si>
+    <t>Api Key</t>
+  </si>
+  <si>
+    <t>Internal Server</t>
+  </si>
+  <si>
+    <t>deletedAssessmentResult.jmx</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>flexdigitalhealth-qa.apigee.net/fdh-product-12</t>
+  </si>
+  <si>
+    <t>jZm1JrgKlA9c4gHtoLHxabfLbzEeINIG2</t>
+  </si>
+  <si>
+    <t>qa-product-1.flexdigitalhealth.com2</t>
+  </si>
+  <si>
+    <t>authenticatePatient.jmx</t>
+  </si>
+  <si>
+    <t>getAssessmentScheduleDetail.jmx</t>
+  </si>
+  <si>
+    <t>createAssessmentResult_WD.jmx</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>createAssessmentSchedule.jmx</t>
+  </si>
+  <si>
+    <t>createPatience.jmx</t>
+  </si>
+  <si>
+    <t>createPatientCarePlan.jmx</t>
+  </si>
+  <si>
+    <t>createUser.jmx</t>
+  </si>
+  <si>
+    <t>getAssessmentDetail.jmx</t>
+  </si>
+  <si>
+    <t>getAssessmentResult.jmx</t>
+  </si>
+  <si>
+    <t>getPatientCarePlan.jmx</t>
+  </si>
+  <si>
+    <t>jmeterScripts.zip</t>
+  </si>
+  <si>
+    <t>updateAssessmentResult.jmx</t>
+  </si>
+  <si>
+    <t>uploadAssessmentResult.jmx</t>
+  </si>
+  <si>
     <t>&lt;concurrency&gt;,&lt;duration in seconds&gt;,&lt;Rampup Period in seconds&gt;</t>
-  </si>
-  <si>
-    <t>getAssessmentDetail.jmx</t>
-  </si>
-  <si>
-    <t>authenticatePatient.jmx</t>
-  </si>
-  <si>
-    <t>createAssessmentResult_WD.jmx</t>
-  </si>
-  <si>
-    <t>createAssessmentSchedule.jmx</t>
-  </si>
-  <si>
-    <t>createPatience.jmx</t>
-  </si>
-  <si>
-    <t>createPatientCarePlan.jmx</t>
-  </si>
-  <si>
-    <t>createUser.jmx</t>
-  </si>
-  <si>
-    <t>deletedAssessmentResult.jmx</t>
-  </si>
-  <si>
-    <t>getAssessmentResult.jmx</t>
-  </si>
-  <si>
-    <t>getAssessmentScheduleDetail.jmx</t>
-  </si>
-  <si>
-    <t>getPatientCarePlan.jmx</t>
-  </si>
-  <si>
-    <t>jmeterScripts.zip</t>
-  </si>
-  <si>
-    <t>updateAssessmentResult.jmx</t>
-  </si>
-  <si>
-    <t>uploadAssessmentResult.jmx</t>
   </si>
 </sst>
 </file>
@@ -111,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -119,12 +153,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,134 +516,1868 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="J4" t="s">
-        <v>8</v>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="J5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="9" spans="1:14">
-      <c r="J9" t="s">
-        <v>5</v>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="J10" t="s">
-        <v>13</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="J11" t="s">
-        <v>14</v>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="J12" t="s">
-        <v>15</v>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="J13" t="s">
-        <v>16</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="J14" t="s">
-        <v>17</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" hidden="1">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" hidden="1">
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" hidden="1">
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" hidden="1">
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" hidden="1">
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" hidden="1">
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" hidden="1">
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" hidden="1">
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" hidden="1">
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" hidden="1">
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="7:10" hidden="1">
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="7:10" hidden="1">
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="7:10" hidden="1">
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="7:10" hidden="1">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="7:10" hidden="1">
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="7:10" hidden="1">
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="7:10" hidden="1">
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="7:10" hidden="1">
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="7:10" hidden="1">
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="7:10" hidden="1">
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="7:10" hidden="1">
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="7:10" hidden="1">
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="7:10" hidden="1">
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="7:10" hidden="1">
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="7:10" hidden="1">
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="7:10" hidden="1">
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="7:10" hidden="1">
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="7:10" hidden="1">
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="7:10" hidden="1">
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="7:10" hidden="1">
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="7:10" hidden="1">
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="7:10" hidden="1">
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="7:10" hidden="1">
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="7:10" hidden="1">
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="7:10" hidden="1">
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="7:10" hidden="1">
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="7:10" hidden="1">
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="7:10" hidden="1">
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="7:10" hidden="1">
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="7:10" hidden="1">
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="7:10" hidden="1">
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="7:10" hidden="1">
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145" spans="7:10" hidden="1">
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+    </row>
+    <row r="146" spans="7:10" hidden="1">
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="7:10" hidden="1">
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="7:10" hidden="1">
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="7:10" hidden="1">
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="7:10" hidden="1">
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="7:10" hidden="1">
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="7:10" hidden="1">
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153" spans="7:10" hidden="1">
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" spans="7:10" hidden="1">
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="7:10" hidden="1">
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="7:10" hidden="1">
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="7:10" hidden="1">
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="7:10" hidden="1">
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="7:10" hidden="1">
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="7:10" hidden="1">
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="7:10" hidden="1">
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="7:10" hidden="1">
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" spans="7:10" hidden="1">
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="7:10" hidden="1">
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="7:10" hidden="1">
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="7:10" hidden="1">
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="7:10" hidden="1">
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="7:10" hidden="1">
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169" spans="7:10" hidden="1">
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170" spans="7:10" hidden="1">
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+    </row>
+    <row r="171" spans="7:10" hidden="1">
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="7:10" hidden="1">
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173" spans="7:10" hidden="1">
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="7:10" hidden="1">
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="7:10" hidden="1">
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="7:10" hidden="1">
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="7:10" hidden="1">
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" spans="7:10" hidden="1">
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179" spans="7:10" hidden="1">
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="7:10" hidden="1">
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="7:10" hidden="1">
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="7:10" hidden="1">
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="7:10" hidden="1">
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="7:10" hidden="1">
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+    </row>
+    <row r="185" spans="7:10" hidden="1">
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+    </row>
+    <row r="186" spans="7:10" hidden="1">
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+    </row>
+    <row r="187" spans="7:10" hidden="1"/>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D101" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$J$2:$J$15</formula1>
+      <formula1>$K$2:$K$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F101" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$N$2:$N$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E1FA4E-90E8-4E4E-AE6C-E4C6D2FC9EF4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{906D3716-915A-51F1-BC42-54A5071B6574}"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>